--- a/data/n2v/tables/model-1-1536-20230829-38.xlsx
+++ b/data/n2v/tables/model-1-1536-20230829-38.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -12304,7 +12304,7 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -12862,7 +12862,7 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -13204,7 +13204,7 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         </is>
       </c>
       <c r="C736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         </is>
       </c>
       <c r="C803" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="C804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         </is>
       </c>
       <c r="C822" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         </is>
       </c>
       <c r="C865" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         </is>
       </c>
       <c r="C908" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         </is>
       </c>
       <c r="C914" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         </is>
       </c>
       <c r="C922" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="C929" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         </is>
       </c>
       <c r="C937" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         </is>
       </c>
       <c r="C941" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         </is>
       </c>
       <c r="C953" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         </is>
       </c>
       <c r="C958" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         </is>
       </c>
       <c r="C968" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         </is>
       </c>
       <c r="C969" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         </is>
       </c>
       <c r="C983" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         </is>
       </c>
       <c r="C985" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         </is>
       </c>
       <c r="C990" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         </is>
       </c>
       <c r="C992" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         </is>
       </c>
       <c r="C994" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="C996" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         </is>
       </c>
       <c r="C997" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         </is>
       </c>
       <c r="C1000" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         </is>
       </c>
       <c r="C1001" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         </is>
       </c>
       <c r="C1019" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         </is>
       </c>
       <c r="C1020" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         </is>
       </c>
       <c r="C1022" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         </is>
       </c>
       <c r="C1023" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         </is>
       </c>
       <c r="C1034" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1054" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         </is>
       </c>
       <c r="C1057" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1057" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1060" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1061" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1062" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         </is>
       </c>
       <c r="C1066" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1067" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1070" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1071" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1073" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1076" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1080" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1081" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1085" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1088" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         </is>
       </c>
       <c r="C1094" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1094" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1095" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1097" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1099" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1100" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1102" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         </is>
       </c>
       <c r="C1103" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1103" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="C1104" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1104" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1106" t="inlineStr">
         <is>
@@ -20368,7 +20368,7 @@
         </is>
       </c>
       <c r="C1108" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1108" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         </is>
       </c>
       <c r="C1112" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1112" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         </is>
       </c>
       <c r="C1118" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1118" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         </is>
       </c>
       <c r="C1120" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1120" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1121" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         </is>
       </c>
       <c r="C1125" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1125" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         </is>
       </c>
       <c r="C1126" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1126" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         </is>
       </c>
       <c r="C1127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1127" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         </is>
       </c>
       <c r="C1128" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1128" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         </is>
       </c>
       <c r="C1131" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1131" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         </is>
       </c>
       <c r="C1132" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1132" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         </is>
       </c>
       <c r="C1133" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1133" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1134" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1135" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         </is>
       </c>
       <c r="C1136" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1136" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         </is>
       </c>
       <c r="C1137" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1137" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         </is>
       </c>
       <c r="C1139" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1139" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1140" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         </is>
       </c>
       <c r="C1142" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1142" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         </is>
       </c>
       <c r="C1144" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1144" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1145" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         </is>
       </c>
       <c r="C1147" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1147" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         </is>
       </c>
       <c r="C1148" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1148" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="C1149" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1149" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1150" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1151" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         </is>
       </c>
       <c r="C1152" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1152" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         </is>
       </c>
       <c r="C1155" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1155" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         </is>
       </c>
       <c r="C1158" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1158" t="inlineStr">
         <is>
@@ -21304,7 +21304,7 @@
         </is>
       </c>
       <c r="C1160" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1160" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         </is>
       </c>
       <c r="C1161" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1161" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         </is>
       </c>
       <c r="C1165" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1165" t="inlineStr">
         <is>
@@ -21412,7 +21412,7 @@
         </is>
       </c>
       <c r="C1166" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1166" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         </is>
       </c>
       <c r="C1168" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1168" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1171" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1172" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         </is>
       </c>
       <c r="C1174" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1174" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1176" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1177" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="C1179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1179" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1180" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         </is>
       </c>
       <c r="C1183" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1183" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         </is>
       </c>
       <c r="C1184" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1184" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1186" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         </is>
       </c>
       <c r="C1187" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1187" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         </is>
       </c>
       <c r="C1191" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1191" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         </is>
       </c>
       <c r="C1192" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1192" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         </is>
       </c>
       <c r="C1193" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1193" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1194" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         </is>
       </c>
       <c r="C1197" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1197" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
         </is>
       </c>
       <c r="C1198" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1198" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         </is>
       </c>
       <c r="C1202" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1202" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         </is>
       </c>
       <c r="C1203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1203" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="C1204" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1204" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         </is>
       </c>
       <c r="C1211" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1211" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         </is>
       </c>
       <c r="C1212" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1212" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         </is>
       </c>
       <c r="C1213" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1213" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         </is>
       </c>
       <c r="C1214" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1214" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         </is>
       </c>
       <c r="C1216" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1216" t="inlineStr">
         <is>
@@ -22330,7 +22330,7 @@
         </is>
       </c>
       <c r="C1217" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1217" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         </is>
       </c>
       <c r="C1218" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1218" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         </is>
       </c>
       <c r="C1221" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1221" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         </is>
       </c>
       <c r="C1223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1223" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="C1229" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1229" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         </is>
       </c>
       <c r="C1231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1231" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         </is>
       </c>
       <c r="C1234" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1234" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1236" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         </is>
       </c>
       <c r="C1241" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1241" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         </is>
       </c>
       <c r="C1249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1249" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         </is>
       </c>
       <c r="C1250" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1250" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         </is>
       </c>
       <c r="C1252" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1252" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         </is>
       </c>
       <c r="C1253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1253" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="C1254" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1254" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         </is>
       </c>
       <c r="C1255" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1255" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         </is>
       </c>
       <c r="C1259" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1259" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         </is>
       </c>
       <c r="C1265" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1265" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         </is>
       </c>
       <c r="C1267" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1267" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="C1269" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1269" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         </is>
       </c>
       <c r="C1277" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1277" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         </is>
       </c>
       <c r="C1278" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1278" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         </is>
       </c>
       <c r="C1281" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1281" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         </is>
       </c>
       <c r="C1286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1286" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         </is>
       </c>
       <c r="C1287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1287" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         </is>
       </c>
       <c r="C1289" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1289" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         </is>
       </c>
       <c r="C1292" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1292" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         </is>
       </c>
       <c r="C1297" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1297" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         </is>
       </c>
       <c r="C1298" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1298" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         </is>
       </c>
       <c r="C1299" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1299" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="C1304" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1304" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         </is>
       </c>
       <c r="C1306" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1306" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="C1308" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1308" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         </is>
       </c>
       <c r="C1310" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1310" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         </is>
       </c>
       <c r="C1312" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1312" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         </is>
       </c>
       <c r="C1313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1313" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         </is>
       </c>
       <c r="C1315" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1315" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         </is>
       </c>
       <c r="C1325" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1325" t="inlineStr">
         <is>
@@ -24310,7 +24310,7 @@
         </is>
       </c>
       <c r="C1327" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1327" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="C1329" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1329" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         </is>
       </c>
       <c r="C1330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1330" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1335" t="inlineStr">
         <is>
@@ -24472,7 +24472,7 @@
         </is>
       </c>
       <c r="C1336" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1336" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         </is>
       </c>
       <c r="C1337" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1337" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         </is>
       </c>
       <c r="C1338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1338" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         </is>
       </c>
       <c r="C1339" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1339" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         </is>
       </c>
       <c r="C1341" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1341" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="C1343" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1343" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         </is>
       </c>
       <c r="C1344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1344" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="C1349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1349" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         </is>
       </c>
       <c r="C1351" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1351" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         </is>
       </c>
       <c r="C1357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1357" t="inlineStr">
         <is>
@@ -24958,7 +24958,7 @@
         </is>
       </c>
       <c r="C1363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1363" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         </is>
       </c>
       <c r="C1371" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1371" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         </is>
       </c>
       <c r="C1375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1375" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         </is>
       </c>
       <c r="C1376" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1376" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         </is>
       </c>
       <c r="C1378" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1378" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="C1379" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1379" t="inlineStr">
         <is>
@@ -25318,7 +25318,7 @@
         </is>
       </c>
       <c r="C1383" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1383" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         </is>
       </c>
       <c r="C1391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1391" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         </is>
       </c>
       <c r="C1395" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1395" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         </is>
       </c>
       <c r="C1396" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1396" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         </is>
       </c>
       <c r="C1397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1397" t="inlineStr">
         <is>
@@ -25660,7 +25660,7 @@
         </is>
       </c>
       <c r="C1402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1402" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="C1404" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1404" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         </is>
       </c>
       <c r="C1405" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1405" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         </is>
       </c>
       <c r="C1408" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1408" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         </is>
       </c>
       <c r="C1411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1411" t="inlineStr">
         <is>
@@ -25858,7 +25858,7 @@
         </is>
       </c>
       <c r="C1413" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1413" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         </is>
       </c>
       <c r="C1414" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1414" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         </is>
       </c>
       <c r="C1416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1416" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         </is>
       </c>
       <c r="C1418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1418" t="inlineStr">
         <is>
@@ -25966,7 +25966,7 @@
         </is>
       </c>
       <c r="C1419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1419" t="inlineStr">
         <is>
@@ -25984,7 +25984,7 @@
         </is>
       </c>
       <c r="C1420" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1420" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         </is>
       </c>
       <c r="C1423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1423" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         </is>
       </c>
       <c r="C1424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1424" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         </is>
       </c>
       <c r="C1426" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1426" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="C1429" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1429" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         </is>
       </c>
       <c r="C1436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1436" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         </is>
       </c>
       <c r="C1443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1443" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         </is>
       </c>
       <c r="C1445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1445" t="inlineStr">
         <is>
@@ -26560,7 +26560,7 @@
         </is>
       </c>
       <c r="C1452" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1452" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         </is>
       </c>
       <c r="C1457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1457" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         </is>
       </c>
       <c r="C1460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1460" t="inlineStr">
         <is>
@@ -26758,7 +26758,7 @@
         </is>
       </c>
       <c r="C1463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1463" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         </is>
       </c>
       <c r="C1465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1465" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         </is>
       </c>
       <c r="C1466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1466" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         </is>
       </c>
       <c r="C1473" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1473" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         </is>
       </c>
       <c r="C1478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1478" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         </is>
       </c>
       <c r="C1486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1486" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         </is>
       </c>
       <c r="C1491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1491" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         </is>
       </c>
       <c r="C1493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1493" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         </is>
       </c>
       <c r="C1494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1494" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         </is>
       </c>
       <c r="C1496" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1496" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         </is>
       </c>
       <c r="C1497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1497" t="inlineStr">
         <is>
@@ -27388,7 +27388,7 @@
         </is>
       </c>
       <c r="C1498" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1498" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         </is>
       </c>
       <c r="C1500" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1500" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         </is>
       </c>
       <c r="C1501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1501" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         </is>
       </c>
       <c r="C1503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1503" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         </is>
       </c>
       <c r="C1505" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1505" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         </is>
       </c>
       <c r="C1506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1506" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         </is>
       </c>
       <c r="C1508" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1508" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="C1509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1509" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         </is>
       </c>
       <c r="C1512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1512" t="inlineStr">
         <is>
@@ -27748,7 +27748,7 @@
         </is>
       </c>
       <c r="C1518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1518" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         </is>
       </c>
       <c r="C1522" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1522" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         </is>
       </c>
       <c r="C1525" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1525" t="inlineStr">
         <is>
@@ -27946,7 +27946,7 @@
         </is>
       </c>
       <c r="C1529" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1529" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         </is>
       </c>
       <c r="C1532" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1532" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         </is>
       </c>
       <c r="C1541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1541" t="inlineStr">
         <is>
@@ -28180,7 +28180,7 @@
         </is>
       </c>
       <c r="C1542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1542" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         </is>
       </c>
       <c r="C1545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1545" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="C1550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1550" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         </is>
       </c>
       <c r="C1551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1551" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         </is>
       </c>
       <c r="C1560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1560" t="inlineStr">
         <is>
@@ -28576,7 +28576,7 @@
         </is>
       </c>
       <c r="C1564" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1564" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         </is>
       </c>
       <c r="C1568" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1568" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         </is>
       </c>
       <c r="C1571" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1571" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         </is>
       </c>
       <c r="C1572" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1572" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         </is>
       </c>
       <c r="C1577" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1577" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         </is>
       </c>
       <c r="C1581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1581" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         </is>
       </c>
       <c r="C1588" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1588" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         </is>
       </c>
       <c r="C1601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1601" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         </is>
       </c>
       <c r="C1602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1602" t="inlineStr">
         <is>
